--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Covid19-data-chart-nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -48,13 +48,7 @@
     <t>discharged_cases</t>
   </si>
   <si>
-    <t>one dose of vacination</t>
-  </si>
-  <si>
     <t>active_cases</t>
-  </si>
-  <si>
-    <t>fully_vaccinated</t>
   </si>
 </sst>
 </file>
@@ -456,7 +450,7 @@
   <dimension ref="A1:BN691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="28.5"/>
@@ -482,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -493,12 +487,8 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="1"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -28319,9 +28309,6 @@
       <c r="F373" s="3">
         <v>1544008</v>
       </c>
-      <c r="G373" s="2">
-        <v>2</v>
-      </c>
       <c r="I373" s="5"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
@@ -28397,9 +28384,6 @@
       <c r="F374" s="3">
         <v>1544008</v>
       </c>
-      <c r="G374" s="2">
-        <v>2</v>
-      </c>
       <c r="I374" s="5"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
@@ -28475,9 +28459,6 @@
       <c r="F375" s="3">
         <v>1544008</v>
       </c>
-      <c r="G375" s="2">
-        <v>2</v>
-      </c>
       <c r="I375" s="5"/>
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
@@ -28553,9 +28534,6 @@
       <c r="F376" s="3">
         <v>1601396</v>
       </c>
-      <c r="G376" s="2">
-        <v>2</v>
-      </c>
       <c r="I376" s="5"/>
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
@@ -28631,9 +28609,6 @@
       <c r="F377" s="3">
         <v>1601396</v>
       </c>
-      <c r="G377" s="2">
-        <v>2</v>
-      </c>
       <c r="I377" s="5"/>
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
@@ -28709,9 +28684,6 @@
       <c r="F378" s="3">
         <v>1601396</v>
       </c>
-      <c r="G378" s="2">
-        <v>2</v>
-      </c>
       <c r="I378" s="5"/>
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
@@ -28787,9 +28759,6 @@
       <c r="F379" s="3">
         <v>1601396</v>
       </c>
-      <c r="G379" s="2">
-        <v>2</v>
-      </c>
       <c r="I379" s="5"/>
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
@@ -28865,9 +28834,6 @@
       <c r="F380" s="3">
         <v>1601396</v>
       </c>
-      <c r="G380" s="2">
-        <v>2</v>
-      </c>
       <c r="I380" s="5"/>
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
@@ -28943,9 +28909,6 @@
       <c r="F381" s="3">
         <v>1601396</v>
       </c>
-      <c r="G381" s="2">
-        <v>2</v>
-      </c>
       <c r="I381" s="5"/>
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
@@ -29021,9 +28984,6 @@
       <c r="F382" s="3">
         <v>1601396</v>
       </c>
-      <c r="G382" s="2">
-        <v>2</v>
-      </c>
       <c r="I382" s="5"/>
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
@@ -29099,9 +29059,7 @@
       <c r="F383" s="3">
         <v>1684305</v>
       </c>
-      <c r="G383" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
@@ -29177,9 +29135,7 @@
       <c r="F384" s="3">
         <v>1684305</v>
       </c>
-      <c r="G384" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
@@ -29255,9 +29211,7 @@
       <c r="F385" s="3">
         <v>1684305</v>
       </c>
-      <c r="G385" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
@@ -29333,9 +29287,7 @@
       <c r="F386" s="3">
         <v>1684305</v>
       </c>
-      <c r="G386" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
@@ -29411,9 +29363,7 @@
       <c r="F387" s="3">
         <v>1684305</v>
       </c>
-      <c r="G387" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
@@ -29489,9 +29439,7 @@
       <c r="F388" s="3">
         <v>1684305</v>
       </c>
-      <c r="G388" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
@@ -29567,9 +29515,7 @@
       <c r="F389" s="3">
         <v>1684305</v>
       </c>
-      <c r="G389" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
@@ -29645,9 +29591,7 @@
       <c r="F390" s="3">
         <v>1727467</v>
       </c>
-      <c r="G390" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
@@ -29723,9 +29667,7 @@
       <c r="F391" s="3">
         <v>1727467</v>
       </c>
-      <c r="G391" s="3">
-        <v>8000</v>
-      </c>
+      <c r="G391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
@@ -29801,9 +29743,7 @@
       <c r="F392" s="3">
         <v>1727467</v>
       </c>
-      <c r="G392" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
@@ -29879,9 +29819,7 @@
       <c r="F393" s="3">
         <v>1727467</v>
       </c>
-      <c r="G393" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
@@ -29957,9 +29895,7 @@
       <c r="F394" s="3">
         <v>1727467</v>
       </c>
-      <c r="G394" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
@@ -30035,9 +29971,7 @@
       <c r="F395" s="3">
         <v>1727467</v>
       </c>
-      <c r="G395" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
@@ -30113,9 +30047,7 @@
       <c r="F396" s="3">
         <v>1727467</v>
       </c>
-      <c r="G396" s="3">
-        <v>513626</v>
-      </c>
+      <c r="G396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
@@ -30191,9 +30123,7 @@
       <c r="F397" s="3">
         <v>1767694</v>
       </c>
-      <c r="G397" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
@@ -30269,9 +30199,7 @@
       <c r="F398" s="3">
         <v>1767694</v>
       </c>
-      <c r="G398" s="3">
-        <v>277458</v>
-      </c>
+      <c r="G398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
@@ -30347,9 +30275,7 @@
       <c r="F399" s="3">
         <v>1767694</v>
       </c>
-      <c r="G399" s="3">
-        <v>718412</v>
-      </c>
+      <c r="G399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
@@ -30425,9 +30351,7 @@
       <c r="F400" s="3">
         <v>1767694</v>
       </c>
-      <c r="G400" s="3">
-        <v>818865</v>
-      </c>
+      <c r="G400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
@@ -30503,9 +30427,7 @@
       <c r="F401" s="3">
         <v>1767694</v>
       </c>
-      <c r="G401" s="3">
-        <v>818865</v>
-      </c>
+      <c r="G401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
@@ -30581,9 +30503,7 @@
       <c r="F402" s="3">
         <v>1767694</v>
       </c>
-      <c r="G402" s="3">
-        <v>818865</v>
-      </c>
+      <c r="G402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
@@ -30659,9 +30579,7 @@
       <c r="F403" s="3">
         <v>1767694</v>
       </c>
-      <c r="G403" s="3">
-        <v>818865</v>
-      </c>
+      <c r="G403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
@@ -30737,9 +30655,7 @@
       <c r="F404" s="3">
         <v>1803177</v>
       </c>
-      <c r="G404" s="3">
-        <v>818865</v>
-      </c>
+      <c r="G404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
@@ -30815,9 +30731,7 @@
       <c r="F405" s="3">
         <v>1803177</v>
       </c>
-      <c r="G405" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
@@ -30893,9 +30807,7 @@
       <c r="F406" s="3">
         <v>1803177</v>
       </c>
-      <c r="G406" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
@@ -30971,9 +30883,7 @@
       <c r="F407" s="3">
         <v>1803177</v>
       </c>
-      <c r="G407" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
@@ -31049,9 +30959,7 @@
       <c r="F408" s="3">
         <v>1803177</v>
       </c>
-      <c r="G408" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
@@ -31127,9 +31035,7 @@
       <c r="F409" s="3">
         <v>1803177</v>
       </c>
-      <c r="G409" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
@@ -31205,9 +31111,7 @@
       <c r="F410" s="3">
         <v>1803177</v>
       </c>
-      <c r="G410" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
@@ -31283,9 +31187,6 @@
       <c r="F411" s="3">
         <v>1838174</v>
       </c>
-      <c r="G411" s="2">
-        <v>964387</v>
-      </c>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
@@ -31361,9 +31262,7 @@
       <c r="F412" s="3">
         <v>1838174</v>
       </c>
-      <c r="G412" s="3">
-        <v>964387</v>
-      </c>
+      <c r="G412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
@@ -31439,9 +31338,7 @@
       <c r="F413" s="3">
         <v>1838174</v>
       </c>
-      <c r="G413" s="3">
-        <v>1043737</v>
-      </c>
+      <c r="G413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
@@ -31517,9 +31414,7 @@
       <c r="F414" s="3">
         <v>1838174</v>
       </c>
-      <c r="G414" s="3">
-        <v>1051096</v>
-      </c>
+      <c r="G414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
@@ -31595,9 +31490,7 @@
       <c r="F415" s="3">
         <v>1838174</v>
       </c>
-      <c r="G415" s="3">
-        <v>1081548</v>
-      </c>
+      <c r="G415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
@@ -31673,9 +31566,7 @@
       <c r="F416" s="3">
         <v>1838174</v>
       </c>
-      <c r="G416" s="3">
-        <v>1081548</v>
-      </c>
+      <c r="G416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
@@ -31751,9 +31642,7 @@
       <c r="F417" s="3">
         <v>1838174</v>
       </c>
-      <c r="G417" s="3">
-        <v>1096727</v>
-      </c>
+      <c r="G417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
@@ -31829,9 +31718,7 @@
       <c r="F418" s="3">
         <v>1870915</v>
       </c>
-      <c r="G418" s="3">
-        <v>1101827</v>
-      </c>
+      <c r="G418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
@@ -31907,9 +31794,7 @@
       <c r="F419" s="3">
         <v>1870915</v>
       </c>
-      <c r="G419" s="3">
-        <v>1114408</v>
-      </c>
+      <c r="G419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
@@ -31985,9 +31870,7 @@
       <c r="F420" s="3">
         <v>1870915</v>
       </c>
-      <c r="G420" s="3">
-        <v>1133325</v>
-      </c>
+      <c r="G420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
@@ -32063,9 +31946,7 @@
       <c r="F421" s="3">
         <v>1870915</v>
       </c>
-      <c r="G421" s="3">
-        <v>1148168</v>
-      </c>
+      <c r="G421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
@@ -32141,9 +32022,7 @@
       <c r="F422" s="3">
         <v>1870915</v>
       </c>
-      <c r="G422" s="3">
-        <v>1158582</v>
-      </c>
+      <c r="G422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
@@ -32219,9 +32098,7 @@
       <c r="F423" s="3">
         <v>1870915</v>
       </c>
-      <c r="G423" s="3">
-        <v>1167837</v>
-      </c>
+      <c r="G423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
@@ -32297,9 +32174,7 @@
       <c r="F424" s="3">
         <v>1870915</v>
       </c>
-      <c r="G424" s="3">
-        <v>1171515</v>
-      </c>
+      <c r="G424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
@@ -32375,9 +32250,7 @@
       <c r="F425" s="3">
         <v>1912628</v>
       </c>
-      <c r="G425" s="3">
-        <v>1175285</v>
-      </c>
+      <c r="G425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
@@ -32453,9 +32326,7 @@
       <c r="F426" s="3">
         <v>1912628</v>
       </c>
-      <c r="G426" s="3">
-        <v>1181941</v>
-      </c>
+      <c r="G426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
@@ -32531,9 +32402,7 @@
       <c r="F427" s="3">
         <v>1912628</v>
       </c>
-      <c r="G427" s="3">
-        <v>1191563</v>
-      </c>
+      <c r="G427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
@@ -32609,9 +32478,7 @@
       <c r="F428" s="3">
         <v>1912628</v>
       </c>
-      <c r="G428" s="3">
-        <v>1191563</v>
-      </c>
+      <c r="G428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
@@ -32687,9 +32554,7 @@
       <c r="F429" s="3">
         <v>1912628</v>
       </c>
-      <c r="G429" s="3">
-        <v>1191563</v>
-      </c>
+      <c r="G429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
@@ -32765,9 +32630,7 @@
       <c r="F430" s="3">
         <v>1912628</v>
       </c>
-      <c r="G430" s="3">
-        <v>1222109</v>
-      </c>
+      <c r="G430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
@@ -32843,9 +32706,7 @@
       <c r="F431" s="3">
         <v>1912628</v>
       </c>
-      <c r="G431" s="3">
-        <v>1229733</v>
-      </c>
+      <c r="G431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
@@ -32921,9 +32782,7 @@
       <c r="F432" s="3">
         <v>1939165</v>
       </c>
-      <c r="G432" s="3">
-        <v>1236815</v>
-      </c>
+      <c r="G432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
@@ -32999,9 +32858,7 @@
       <c r="F433" s="3">
         <v>1939165</v>
       </c>
-      <c r="G433" s="3">
-        <v>1246845</v>
-      </c>
+      <c r="G433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
@@ -33077,9 +32934,7 @@
       <c r="F434" s="3">
         <v>1939165</v>
       </c>
-      <c r="G434" s="3">
-        <v>1266742</v>
-      </c>
+      <c r="G434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
@@ -33155,9 +33010,7 @@
       <c r="F435" s="3">
         <v>1939165</v>
       </c>
-      <c r="G435" s="3">
-        <v>1289773</v>
-      </c>
+      <c r="G435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
@@ -33233,9 +33086,7 @@
       <c r="F436" s="3">
         <v>1939165</v>
       </c>
-      <c r="G436" s="3">
-        <v>1615787</v>
-      </c>
+      <c r="G436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
@@ -33311,9 +33162,7 @@
       <c r="F437" s="3">
         <v>1939165</v>
       </c>
-      <c r="G437" s="3">
-        <v>1653292</v>
-      </c>
+      <c r="G437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
@@ -33389,9 +33238,7 @@
       <c r="F438" s="3">
         <v>1939165</v>
       </c>
-      <c r="G438" s="3">
-        <v>1665698</v>
-      </c>
+      <c r="G438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
@@ -33467,9 +33314,7 @@
       <c r="F439" s="3">
         <v>1977479</v>
       </c>
-      <c r="G439" s="3">
-        <v>1697243</v>
-      </c>
+      <c r="G439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
@@ -33545,9 +33390,7 @@
       <c r="F440" s="3">
         <v>1977479</v>
       </c>
-      <c r="G440" s="3">
-        <v>1713306</v>
-      </c>
+      <c r="G440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
@@ -33623,9 +33466,7 @@
       <c r="F441" s="3">
         <v>1977479</v>
       </c>
-      <c r="G441" s="3">
-        <v>1748242</v>
-      </c>
+      <c r="G441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
@@ -33701,9 +33542,7 @@
       <c r="F442" s="3">
         <v>1977479</v>
       </c>
-      <c r="G442" s="3">
-        <v>1763552</v>
-      </c>
+      <c r="G442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
@@ -33779,9 +33618,7 @@
       <c r="F443" s="3">
         <v>1977479</v>
       </c>
-      <c r="G443" s="3">
-        <v>1767488</v>
-      </c>
+      <c r="G443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
@@ -33857,9 +33694,7 @@
       <c r="F444" s="3">
         <v>1977479</v>
       </c>
-      <c r="G444" s="3">
-        <v>1794552</v>
-      </c>
+      <c r="G444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
@@ -33935,9 +33770,7 @@
       <c r="F445" s="3">
         <v>1977479</v>
       </c>
-      <c r="G445" s="3">
-        <v>1811795</v>
-      </c>
+      <c r="G445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
@@ -34013,9 +33846,7 @@
       <c r="F446" s="3">
         <v>2002653</v>
       </c>
-      <c r="G446" s="3">
-        <v>1823095</v>
-      </c>
+      <c r="G446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
@@ -34091,9 +33922,7 @@
       <c r="F447" s="3">
         <v>2002653</v>
       </c>
-      <c r="G447" s="3">
-        <v>1842437</v>
-      </c>
+      <c r="G447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
@@ -34169,9 +33998,7 @@
       <c r="F448" s="3">
         <v>2002653</v>
       </c>
-      <c r="G448" s="3">
-        <v>1880788</v>
-      </c>
+      <c r="G448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
@@ -34247,9 +34074,7 @@
       <c r="F449" s="3">
         <v>2002653</v>
       </c>
-      <c r="G449" s="3">
-        <v>1894794</v>
-      </c>
+      <c r="G449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
@@ -34325,9 +34150,7 @@
       <c r="F450" s="3">
         <v>2002653</v>
       </c>
-      <c r="G450" s="3">
-        <v>1911254</v>
-      </c>
+      <c r="G450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
@@ -34403,9 +34226,7 @@
       <c r="F451" s="3">
         <v>2002653</v>
       </c>
-      <c r="G451" s="3">
-        <v>1927141</v>
-      </c>
+      <c r="G451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
@@ -34481,9 +34302,7 @@
       <c r="F452" s="3">
         <v>2002653</v>
       </c>
-      <c r="G452" s="3">
-        <v>1929237</v>
-      </c>
+      <c r="G452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
@@ -34559,9 +34378,7 @@
       <c r="F453" s="3">
         <v>2093243</v>
       </c>
-      <c r="G453" s="3">
-        <v>1929237</v>
-      </c>
+      <c r="G453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
@@ -34637,12 +34454,6 @@
       <c r="F454" s="3">
         <v>2093243</v>
       </c>
-      <c r="G454" s="2">
-        <v>1930922</v>
-      </c>
-      <c r="H454" s="2">
-        <v>8815</v>
-      </c>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
@@ -34718,12 +34529,6 @@
       <c r="F455" s="3">
         <v>2093243</v>
       </c>
-      <c r="G455" s="2">
-        <v>1938611</v>
-      </c>
-      <c r="H455" s="2">
-        <v>15259</v>
-      </c>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
@@ -34799,12 +34604,6 @@
       <c r="F456" s="3">
         <v>2093243</v>
       </c>
-      <c r="G456" s="2">
-        <v>1945273</v>
-      </c>
-      <c r="H456" s="2">
-        <v>22162</v>
-      </c>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
@@ -34880,12 +34679,6 @@
       <c r="F457" s="3">
         <v>2093243</v>
       </c>
-      <c r="G457" s="2">
-        <v>1950298</v>
-      </c>
-      <c r="H457" s="2">
-        <v>33944</v>
-      </c>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
@@ -34961,12 +34754,6 @@
       <c r="F458" s="3">
         <v>2093243</v>
       </c>
-      <c r="G458" s="2">
-        <v>1952694</v>
-      </c>
-      <c r="H458" s="2">
-        <v>44220</v>
-      </c>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
@@ -35042,12 +34829,6 @@
       <c r="F459" s="3">
         <v>2093243</v>
       </c>
-      <c r="G459" s="2">
-        <v>1955652</v>
-      </c>
-      <c r="H459" s="2">
-        <v>58938</v>
-      </c>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
@@ -35123,12 +34904,6 @@
       <c r="F460" s="3">
         <v>2133061</v>
       </c>
-      <c r="G460" s="2">
-        <v>1956598</v>
-      </c>
-      <c r="H460" s="2">
-        <v>73465</v>
-      </c>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
@@ -35204,12 +34979,6 @@
       <c r="F461" s="3">
         <v>2133061</v>
       </c>
-      <c r="G461" s="2">
-        <v>1960493</v>
-      </c>
-      <c r="H461" s="2">
-        <v>90735</v>
-      </c>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
@@ -35285,12 +35054,6 @@
       <c r="F462" s="3">
         <v>2133061</v>
       </c>
-      <c r="G462" s="2">
-        <v>1961883</v>
-      </c>
-      <c r="H462" s="2">
-        <v>148258</v>
-      </c>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
       <c r="K462" s="3"/>
@@ -35366,12 +35129,6 @@
       <c r="F463" s="3">
         <v>2133061</v>
       </c>
-      <c r="G463" s="2">
-        <v>1961883</v>
-      </c>
-      <c r="H463" s="2">
-        <v>148258</v>
-      </c>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
@@ -35447,12 +35204,6 @@
       <c r="F464" s="3">
         <v>2133061</v>
       </c>
-      <c r="G464" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H464" s="2">
-        <v>261670</v>
-      </c>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
@@ -35528,12 +35279,6 @@
       <c r="F465" s="3">
         <v>2133061</v>
       </c>
-      <c r="G465" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H465" s="2">
-        <v>261670</v>
-      </c>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
@@ -35609,12 +35354,6 @@
       <c r="F466" s="3">
         <v>2133061</v>
       </c>
-      <c r="G466" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H466" s="2">
-        <v>261670</v>
-      </c>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
       <c r="K466" s="3"/>
@@ -35690,12 +35429,6 @@
       <c r="F467" s="3">
         <v>2180444</v>
       </c>
-      <c r="G467" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H467" s="2">
-        <v>261670</v>
-      </c>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
@@ -35771,12 +35504,6 @@
       <c r="F468" s="3">
         <v>2180444</v>
       </c>
-      <c r="G468" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H468" s="2">
-        <v>261670</v>
-      </c>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
       <c r="K468" s="3"/>
@@ -35852,12 +35579,6 @@
       <c r="F469" s="3">
         <v>2180444</v>
       </c>
-      <c r="G469" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H469" s="2">
-        <v>261670</v>
-      </c>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
@@ -35933,12 +35654,6 @@
       <c r="F470" s="3">
         <v>2180444</v>
       </c>
-      <c r="G470" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H470" s="2">
-        <v>261670</v>
-      </c>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
@@ -36014,12 +35729,6 @@
       <c r="F471" s="3">
         <v>2180444</v>
       </c>
-      <c r="G471" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H471" s="2">
-        <v>261670</v>
-      </c>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
@@ -36095,12 +35804,6 @@
       <c r="F472" s="3">
         <v>2180444</v>
       </c>
-      <c r="G472" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H472" s="2">
-        <v>261670</v>
-      </c>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
       <c r="K472" s="3"/>
@@ -36176,12 +35879,6 @@
       <c r="F473" s="3">
         <v>2180444</v>
       </c>
-      <c r="G473" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H473" s="2">
-        <v>261670</v>
-      </c>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
@@ -36257,12 +35954,6 @@
       <c r="F474" s="3">
         <v>2231409</v>
       </c>
-      <c r="G474" s="2">
-        <v>1964095</v>
-      </c>
-      <c r="H474" s="2">
-        <v>261670</v>
-      </c>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
@@ -36338,12 +36029,6 @@
       <c r="F475" s="3">
         <v>2231409</v>
       </c>
-      <c r="G475" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H475" s="2">
-        <v>680345</v>
-      </c>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
@@ -36419,12 +36104,6 @@
       <c r="F476" s="3">
         <v>2231409</v>
       </c>
-      <c r="G476" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H476" s="2">
-        <v>680345</v>
-      </c>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
       <c r="K476" s="3"/>
@@ -36500,12 +36179,6 @@
       <c r="F477" s="3">
         <v>2231409</v>
       </c>
-      <c r="G477" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H477" s="2">
-        <v>680345</v>
-      </c>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
@@ -36581,12 +36254,6 @@
       <c r="F478" s="3">
         <v>2231409</v>
       </c>
-      <c r="G478" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H478" s="2">
-        <v>680345</v>
-      </c>
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
       <c r="K478" s="3"/>
@@ -36662,12 +36329,6 @@
       <c r="F479" s="3">
         <v>2231409</v>
       </c>
-      <c r="G479" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H479" s="2">
-        <v>680345</v>
-      </c>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
@@ -36743,12 +36404,6 @@
       <c r="F480" s="3">
         <v>2231409</v>
       </c>
-      <c r="G480" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H480" s="2">
-        <v>680345</v>
-      </c>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
@@ -36824,12 +36479,6 @@
       <c r="F481" s="3">
         <v>2266591</v>
       </c>
-      <c r="G481" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H481" s="2">
-        <v>680345</v>
-      </c>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
@@ -36905,12 +36554,6 @@
       <c r="F482" s="3">
         <v>2266591</v>
       </c>
-      <c r="G482" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H482" s="2">
-        <v>680345</v>
-      </c>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
       <c r="K482" s="3"/>
@@ -36986,12 +36629,6 @@
       <c r="F483" s="3">
         <v>2266591</v>
       </c>
-      <c r="G483" s="2">
-        <v>1978808</v>
-      </c>
-      <c r="H483" s="2">
-        <v>680345</v>
-      </c>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
       <c r="K483" s="3"/>
@@ -37067,12 +36704,6 @@
       <c r="F484" s="3">
         <v>2266591</v>
       </c>
-      <c r="G484" s="2">
-        <v>2099568</v>
-      </c>
-      <c r="H484" s="2">
-        <v>1005234</v>
-      </c>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
       <c r="K484" s="3"/>
@@ -37148,12 +36779,6 @@
       <c r="F485" s="3">
         <v>2266591</v>
       </c>
-      <c r="G485" s="2">
-        <v>2099568</v>
-      </c>
-      <c r="H485" s="2">
-        <v>1005234</v>
-      </c>
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
       <c r="K485" s="3"/>
@@ -37229,12 +36854,6 @@
       <c r="F486" s="3">
         <v>2266591</v>
       </c>
-      <c r="G486" s="2">
-        <v>2099568</v>
-      </c>
-      <c r="H486" s="2">
-        <v>1005234</v>
-      </c>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
       <c r="K486" s="3"/>
@@ -37310,12 +36929,6 @@
       <c r="F487" s="3">
         <v>2266591</v>
       </c>
-      <c r="G487" s="2">
-        <v>2099568</v>
-      </c>
-      <c r="H487" s="2">
-        <v>1005234</v>
-      </c>
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
       <c r="K487" s="3"/>
@@ -37391,12 +37004,6 @@
       <c r="F488" s="3">
         <v>2300266</v>
       </c>
-      <c r="G488" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H488" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
       <c r="K488" s="3"/>
@@ -37472,12 +37079,6 @@
       <c r="F489" s="3">
         <v>2300266</v>
       </c>
-      <c r="G489" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H489" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
@@ -37553,12 +37154,6 @@
       <c r="F490" s="3">
         <v>2300266</v>
       </c>
-      <c r="G490" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H490" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
       <c r="K490" s="3"/>
@@ -37634,12 +37229,6 @@
       <c r="F491" s="3">
         <v>2300266</v>
       </c>
-      <c r="G491" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H491" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
@@ -37715,12 +37304,6 @@
       <c r="F492" s="3">
         <v>2300266</v>
       </c>
-      <c r="G492" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H492" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
@@ -37796,12 +37379,6 @@
       <c r="F493" s="3">
         <v>2300266</v>
       </c>
-      <c r="G493" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H493" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
@@ -37877,12 +37454,6 @@
       <c r="F494" s="3">
         <v>2300266</v>
       </c>
-      <c r="G494" s="2">
-        <v>2241662</v>
-      </c>
-      <c r="H494" s="2">
-        <v>1155810</v>
-      </c>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
@@ -37958,12 +37529,6 @@
       <c r="F495" s="3">
         <v>2331734</v>
       </c>
-      <c r="G495" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H495" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
       <c r="K495" s="3"/>
@@ -38039,12 +37604,6 @@
       <c r="F496" s="3">
         <v>2331734</v>
       </c>
-      <c r="G496" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H496" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
@@ -38120,12 +37679,6 @@
       <c r="F497" s="3">
         <v>2331734</v>
       </c>
-      <c r="G497" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H497" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
@@ -38201,12 +37754,6 @@
       <c r="F498" s="3">
         <v>2331734</v>
       </c>
-      <c r="G498" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H498" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
@@ -38282,12 +37829,6 @@
       <c r="F499" s="3">
         <v>2331734</v>
       </c>
-      <c r="G499" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H499" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
       <c r="K499" s="3"/>
@@ -38363,12 +37904,6 @@
       <c r="F500" s="3">
         <v>2331734</v>
       </c>
-      <c r="G500" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H500" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
       <c r="K500" s="3"/>
@@ -38444,12 +37979,6 @@
       <c r="F501" s="3">
         <v>2331734</v>
       </c>
-      <c r="G501" s="2">
-        <v>2476637</v>
-      </c>
-      <c r="H501" s="2">
-        <v>1355822</v>
-      </c>
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
       <c r="K501" s="3"/>
@@ -38525,12 +38054,6 @@
       <c r="F502" s="3">
         <v>2362757</v>
       </c>
-      <c r="G502" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H502" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
       <c r="K502" s="3"/>
@@ -38606,12 +38129,6 @@
       <c r="F503" s="3">
         <v>2362757</v>
       </c>
-      <c r="G503" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H503" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
       <c r="K503" s="3"/>
@@ -38687,12 +38204,6 @@
       <c r="F504" s="3">
         <v>2362757</v>
       </c>
-      <c r="G504" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H504" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
       <c r="K504" s="3"/>
@@ -38768,12 +38279,6 @@
       <c r="F505" s="3">
         <v>2362757</v>
       </c>
-      <c r="G505" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H505" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
       <c r="K505" s="3"/>
@@ -38849,12 +38354,6 @@
       <c r="F506" s="3">
         <v>2362757</v>
       </c>
-      <c r="G506" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H506" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
@@ -38930,12 +38429,6 @@
       <c r="F507" s="3">
         <v>2362757</v>
       </c>
-      <c r="G507" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H507" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
@@ -39011,12 +38504,6 @@
       <c r="F508" s="3">
         <v>2362757</v>
       </c>
-      <c r="G508" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H508" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
@@ -39092,12 +38579,6 @@
       <c r="F509" s="3">
         <v>2362757</v>
       </c>
-      <c r="G509" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H509" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
@@ -39173,12 +38654,6 @@
       <c r="F510" s="3">
         <v>2401894</v>
       </c>
-      <c r="G510" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H510" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
       <c r="K510" s="3"/>
@@ -39254,12 +38729,6 @@
       <c r="F511" s="3">
         <v>2401894</v>
       </c>
-      <c r="G511" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H511" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
       <c r="K511" s="3"/>
@@ -39335,12 +38804,6 @@
       <c r="F512" s="3">
         <v>2401894</v>
       </c>
-      <c r="G512" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H512" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
       <c r="K512" s="3"/>
@@ -39416,12 +38879,6 @@
       <c r="F513" s="3">
         <v>2401894</v>
       </c>
-      <c r="G513" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H513" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
       <c r="K513" s="3"/>
@@ -39497,12 +38954,6 @@
       <c r="F514" s="3">
         <v>2401894</v>
       </c>
-      <c r="G514" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H514" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
       <c r="K514" s="3"/>
@@ -39578,12 +39029,6 @@
       <c r="F515" s="3">
         <v>2401894</v>
       </c>
-      <c r="G515" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H515" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
       <c r="K515" s="3"/>
@@ -39659,12 +39104,6 @@
       <c r="F516" s="3">
         <v>2401894</v>
       </c>
-      <c r="G516" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H516" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
       <c r="K516" s="3"/>
@@ -39740,12 +39179,6 @@
       <c r="F517" s="3">
         <v>2439850</v>
       </c>
-      <c r="G517" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H517" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517" s="3"/>
@@ -39821,12 +39254,6 @@
       <c r="F518" s="3">
         <v>2439850</v>
       </c>
-      <c r="G518" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H518" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
       <c r="K518" s="3"/>
@@ -39902,12 +39329,6 @@
       <c r="F519" s="3">
         <v>2439850</v>
       </c>
-      <c r="G519" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H519" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
       <c r="K519" s="3"/>
@@ -39983,12 +39404,6 @@
       <c r="F520" s="3">
         <v>2439850</v>
       </c>
-      <c r="G520" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H520" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
       <c r="K520" s="3"/>
@@ -40064,12 +39479,6 @@
       <c r="F521" s="3">
         <v>2439850</v>
       </c>
-      <c r="G521" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H521" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
       <c r="K521" s="3"/>
@@ -40145,12 +39554,6 @@
       <c r="F522" s="3">
         <v>2439850</v>
       </c>
-      <c r="G522" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H522" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
       <c r="K522" s="3"/>
@@ -40226,12 +39629,6 @@
       <c r="F523" s="3">
         <v>2439850</v>
       </c>
-      <c r="G523" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H523" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
       <c r="K523" s="3"/>
@@ -40307,12 +39704,6 @@
       <c r="F524" s="3">
         <v>2542261</v>
       </c>
-      <c r="G524" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H524" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
       <c r="K524" s="3"/>
@@ -40388,12 +39779,6 @@
       <c r="F525" s="3">
         <v>2542261</v>
       </c>
-      <c r="G525" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H525" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
       <c r="K525" s="3"/>
@@ -40469,12 +39854,6 @@
       <c r="F526" s="3">
         <v>2542261</v>
       </c>
-      <c r="G526" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H526" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
       <c r="K526" s="3"/>
@@ -40550,12 +39929,6 @@
       <c r="F527" s="3">
         <v>2542261</v>
       </c>
-      <c r="G527" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H527" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
       <c r="K527" s="3"/>
@@ -40631,12 +40004,6 @@
       <c r="F528" s="3">
         <v>2542261</v>
       </c>
-      <c r="G528" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H528" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
       <c r="K528" s="3"/>
@@ -40712,12 +40079,6 @@
       <c r="F529" s="3">
         <v>2542261</v>
       </c>
-      <c r="G529" s="2">
-        <v>2534205</v>
-      </c>
-      <c r="H529" s="2">
-        <v>1404740</v>
-      </c>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
       <c r="K529" s="3"/>
@@ -40793,12 +40154,6 @@
       <c r="F530" s="3">
         <v>2589130</v>
       </c>
-      <c r="G530" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H530" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
       <c r="K530" s="3"/>
@@ -40874,12 +40229,6 @@
       <c r="F531" s="3">
         <v>2589130</v>
       </c>
-      <c r="G531" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H531" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
       <c r="K531" s="3"/>
@@ -40955,12 +40304,6 @@
       <c r="F532" s="3">
         <v>2589130</v>
       </c>
-      <c r="G532" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H532" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
       <c r="K532" s="3"/>
@@ -41036,12 +40379,6 @@
       <c r="F533" s="3">
         <v>2589130</v>
       </c>
-      <c r="G533" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H533" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
       <c r="K533" s="3"/>
@@ -41117,12 +40454,6 @@
       <c r="F534" s="3">
         <v>2589130</v>
       </c>
-      <c r="G534" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H534" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
@@ -41198,12 +40529,6 @@
       <c r="F535" s="3">
         <v>2589130</v>
       </c>
-      <c r="G535" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H535" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
       <c r="K535" s="3"/>
@@ -41279,12 +40604,6 @@
       <c r="F536" s="3">
         <v>2589130</v>
       </c>
-      <c r="G536" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H536" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
       <c r="K536" s="3"/>
@@ -41360,12 +40679,6 @@
       <c r="F537" s="3">
         <v>2589130</v>
       </c>
-      <c r="G537" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H537" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
       <c r="K537" s="3"/>
@@ -41441,12 +40754,6 @@
       <c r="F538" s="3">
         <v>2648684</v>
       </c>
-      <c r="G538" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H538" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
       <c r="K538" s="3"/>
@@ -41522,12 +40829,6 @@
       <c r="F539" s="3">
         <v>2648684</v>
       </c>
-      <c r="G539" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H539" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
       <c r="K539" s="3"/>
@@ -41603,12 +40904,6 @@
       <c r="F540" s="3">
         <v>2648684</v>
       </c>
-      <c r="G540" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H540" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
       <c r="K540" s="3"/>
@@ -41684,12 +40979,6 @@
       <c r="F541" s="3">
         <v>2648684</v>
       </c>
-      <c r="G541" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H541" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
       <c r="K541" s="3"/>
@@ -41765,12 +41054,6 @@
       <c r="F542" s="3">
         <v>2648684</v>
       </c>
-      <c r="G542" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H542" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
       <c r="K542" s="3"/>
@@ -41846,12 +41129,6 @@
       <c r="F543" s="3">
         <v>2648684</v>
       </c>
-      <c r="G543" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H543" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
       <c r="K543" s="3"/>
@@ -41927,12 +41204,6 @@
       <c r="F544" s="3">
         <v>2727834</v>
       </c>
-      <c r="G544" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H544" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
       <c r="K544" s="3"/>
@@ -42008,12 +41279,6 @@
       <c r="F545" s="3">
         <v>2727834</v>
       </c>
-      <c r="G545" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H545" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
       <c r="K545" s="3"/>
@@ -42089,12 +41354,6 @@
       <c r="F546" s="3">
         <v>2727834</v>
       </c>
-      <c r="G546" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H546" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
       <c r="K546" s="3"/>
@@ -42170,12 +41429,6 @@
       <c r="F547" s="3">
         <v>2727834</v>
       </c>
-      <c r="G547" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H547" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
@@ -42251,12 +41504,6 @@
       <c r="F548" s="3">
         <v>2727834</v>
       </c>
-      <c r="G548" s="2">
-        <v>2550390</v>
-      </c>
-      <c r="H548" s="2">
-        <v>1416623</v>
-      </c>
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
       <c r="K548" s="3"/>
@@ -42332,12 +41579,6 @@
       <c r="F549" s="3">
         <v>2727834</v>
       </c>
-      <c r="G549" s="2">
-        <v>2756203</v>
-      </c>
-      <c r="H549" s="2">
-        <v>1426312</v>
-      </c>
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
@@ -42413,12 +41654,6 @@
       <c r="F550" s="3">
         <v>2779725</v>
       </c>
-      <c r="G550" s="2">
-        <v>2756203</v>
-      </c>
-      <c r="H550" s="2">
-        <v>1426312</v>
-      </c>
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
       <c r="K550" s="3"/>
@@ -42494,12 +41729,6 @@
       <c r="F551" s="3">
         <v>2779725</v>
       </c>
-      <c r="G551" s="2">
-        <v>2756203</v>
-      </c>
-      <c r="H551" s="2">
-        <v>1426312</v>
-      </c>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
@@ -42575,12 +41804,6 @@
       <c r="F552" s="3">
         <v>2779725</v>
       </c>
-      <c r="G552" s="2">
-        <v>2994933</v>
-      </c>
-      <c r="H552" s="2">
-        <v>1437349</v>
-      </c>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
       <c r="K552" s="3"/>
@@ -42656,12 +41879,6 @@
       <c r="F553" s="3">
         <v>2779725</v>
       </c>
-      <c r="G553" s="2">
-        <v>2994933</v>
-      </c>
-      <c r="H553" s="2">
-        <v>1437349</v>
-      </c>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
       <c r="K553" s="3"/>
@@ -42737,12 +41954,6 @@
       <c r="F554" s="3">
         <v>2779725</v>
       </c>
-      <c r="G554" s="2">
-        <v>2994933</v>
-      </c>
-      <c r="H554" s="2">
-        <v>1437349</v>
-      </c>
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
       <c r="K554" s="3"/>
@@ -42818,12 +42029,6 @@
       <c r="F555" s="3">
         <v>2779725</v>
       </c>
-      <c r="G555" s="2">
-        <v>2994933</v>
-      </c>
-      <c r="H555" s="2">
-        <v>1437349</v>
-      </c>
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
       <c r="K555" s="3"/>
@@ -42899,12 +42104,6 @@
       <c r="F556" s="3">
         <v>2779725</v>
       </c>
-      <c r="G556" s="2">
-        <v>2994933</v>
-      </c>
-      <c r="H556" s="2">
-        <v>1437349</v>
-      </c>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
       <c r="K556" s="3"/>
@@ -42980,12 +42179,6 @@
       <c r="F557" s="3">
         <v>2779725</v>
       </c>
-      <c r="G557" s="2">
-        <v>3461713</v>
-      </c>
-      <c r="H557" s="2">
-        <v>1540123</v>
-      </c>
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
@@ -43061,12 +42254,6 @@
       <c r="F558" s="3">
         <v>2884034</v>
       </c>
-      <c r="G558" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H558" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
@@ -43142,12 +42329,6 @@
       <c r="F559" s="3">
         <v>2884034</v>
       </c>
-      <c r="G559" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H559" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
       <c r="K559" s="3"/>
@@ -43223,12 +42404,6 @@
       <c r="F560" s="3">
         <v>2884034</v>
       </c>
-      <c r="G560" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H560" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
       <c r="K560" s="3"/>
@@ -43304,12 +42479,6 @@
       <c r="F561" s="3">
         <v>2884034</v>
       </c>
-      <c r="G561" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H561" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
@@ -43385,12 +42554,6 @@
       <c r="F562" s="3">
         <v>2884034</v>
       </c>
-      <c r="G562" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H562" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
       <c r="K562" s="3"/>
@@ -43466,12 +42629,6 @@
       <c r="F563" s="3">
         <v>2884034</v>
       </c>
-      <c r="G563" s="2">
-        <v>3600858</v>
-      </c>
-      <c r="H563" s="2">
-        <v>1576011</v>
-      </c>
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
@@ -43547,12 +42704,6 @@
       <c r="F564" s="3">
         <v>2942578</v>
       </c>
-      <c r="G564" s="2">
-        <v>4024704</v>
-      </c>
-      <c r="H564" s="2">
-        <v>1687315</v>
-      </c>
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
       <c r="K564" s="3"/>
@@ -43628,12 +42779,6 @@
       <c r="F565" s="3">
         <v>2942578</v>
       </c>
-      <c r="G565" s="2">
-        <v>4024704</v>
-      </c>
-      <c r="H565" s="2">
-        <v>1687315</v>
-      </c>
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
       <c r="K565" s="3"/>
@@ -43709,12 +42854,6 @@
       <c r="F566" s="3">
         <v>2942578</v>
       </c>
-      <c r="G566" s="2">
-        <v>4024704</v>
-      </c>
-      <c r="H566" s="2">
-        <v>1687315</v>
-      </c>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
       <c r="K566" s="3"/>
@@ -43790,12 +42929,6 @@
       <c r="F567" s="3">
         <v>2942578</v>
       </c>
-      <c r="G567" s="2">
-        <v>4146028</v>
-      </c>
-      <c r="H567" s="2">
-        <v>1712709</v>
-      </c>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
       <c r="K567" s="3"/>
@@ -43871,12 +43004,6 @@
       <c r="F568" s="3">
         <v>2942578</v>
       </c>
-      <c r="G568" s="2">
-        <v>4146028</v>
-      </c>
-      <c r="H568" s="2">
-        <v>1712709</v>
-      </c>
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
       <c r="K568" s="3"/>
@@ -43952,12 +43079,6 @@
       <c r="F569" s="3">
         <v>2942578</v>
       </c>
-      <c r="G569" s="2">
-        <v>4146028</v>
-      </c>
-      <c r="H569" s="2">
-        <v>1712709</v>
-      </c>
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
       <c r="K569" s="3"/>
@@ -44033,12 +43154,6 @@
       <c r="F570" s="3">
         <v>2942578</v>
       </c>
-      <c r="G570" s="2">
-        <v>4146028</v>
-      </c>
-      <c r="H570" s="2">
-        <v>1712709</v>
-      </c>
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
       <c r="K570" s="3"/>
@@ -44114,12 +43229,6 @@
       <c r="F571" s="3">
         <v>2997060</v>
       </c>
-      <c r="G571" s="2">
-        <v>4415507</v>
-      </c>
-      <c r="H571" s="2">
-        <v>1771140</v>
-      </c>
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
       <c r="K571" s="3"/>
@@ -44195,12 +43304,6 @@
       <c r="F572" s="3">
         <v>2997060</v>
       </c>
-      <c r="G572" s="2">
-        <v>4415507</v>
-      </c>
-      <c r="H572" s="2">
-        <v>1771140</v>
-      </c>
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
       <c r="K572" s="3"/>
@@ -44276,12 +43379,6 @@
       <c r="F573" s="3">
         <v>2997060</v>
       </c>
-      <c r="G573" s="2">
-        <v>4415507</v>
-      </c>
-      <c r="H573" s="2">
-        <v>1771140</v>
-      </c>
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
       <c r="K573" s="3"/>
@@ -44357,12 +43454,6 @@
       <c r="F574" s="3">
         <v>2997060</v>
       </c>
-      <c r="G574" s="2">
-        <v>4474172</v>
-      </c>
-      <c r="H574" s="2">
-        <v>1780853</v>
-      </c>
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
       <c r="K574" s="3"/>
@@ -44438,12 +43529,6 @@
       <c r="F575" s="3">
         <v>2997060</v>
       </c>
-      <c r="G575" s="2">
-        <v>4474172</v>
-      </c>
-      <c r="H575" s="2">
-        <v>1780853</v>
-      </c>
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
       <c r="K575" s="3"/>
@@ -44519,12 +43604,6 @@
       <c r="F576" s="3">
         <v>2997060</v>
       </c>
-      <c r="G576" s="2">
-        <v>4474172</v>
-      </c>
-      <c r="H576" s="2">
-        <v>1780853</v>
-      </c>
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
       <c r="K576" s="3"/>
@@ -44600,12 +43679,6 @@
       <c r="F577" s="3">
         <v>2997060</v>
       </c>
-      <c r="G577" s="2">
-        <v>4685526</v>
-      </c>
-      <c r="H577" s="2">
-        <v>1867453</v>
-      </c>
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
       <c r="K577" s="3"/>
@@ -44681,12 +43754,6 @@
       <c r="F578" s="3">
         <v>2997060</v>
       </c>
-      <c r="G578" s="2">
-        <v>4685526</v>
-      </c>
-      <c r="H578" s="2">
-        <v>1867453</v>
-      </c>
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
       <c r="K578" s="3"/>
@@ -44762,12 +43829,6 @@
       <c r="F579" s="3">
         <v>2997060</v>
       </c>
-      <c r="G579" s="2">
-        <v>4685526</v>
-      </c>
-      <c r="H579" s="2">
-        <v>1867453</v>
-      </c>
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
       <c r="K579" s="3"/>
@@ -44843,12 +43904,6 @@
       <c r="F580" s="3">
         <v>2997060</v>
       </c>
-      <c r="G580" s="2">
-        <v>4685526</v>
-      </c>
-      <c r="H580" s="2">
-        <v>1867453</v>
-      </c>
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
       <c r="K580" s="3"/>
@@ -44924,12 +43979,6 @@
       <c r="F581" s="3">
         <v>3043321</v>
       </c>
-      <c r="G581" s="2">
-        <v>4685526</v>
-      </c>
-      <c r="H581" s="2">
-        <v>1867453</v>
-      </c>
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
       <c r="K581" s="3"/>
@@ -45005,12 +44054,6 @@
       <c r="F582" s="3">
         <v>3043321</v>
       </c>
-      <c r="G582" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H582" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
       <c r="K582" s="3"/>
@@ -45086,12 +44129,6 @@
       <c r="F583" s="3">
         <v>3043321</v>
       </c>
-      <c r="G583" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H583" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
       <c r="K583" s="3"/>
@@ -45167,12 +44204,6 @@
       <c r="F584" s="3">
         <v>3043321</v>
       </c>
-      <c r="G584" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H584" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
       <c r="K584" s="3"/>
@@ -45248,12 +44279,6 @@
       <c r="F585" s="3">
         <v>3090114</v>
       </c>
-      <c r="G585" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H585" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
@@ -45329,12 +44354,6 @@
       <c r="F586" s="3">
         <v>3090114</v>
       </c>
-      <c r="G586" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H586" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I586" s="5"/>
       <c r="J586" s="3"/>
       <c r="K586" s="3"/>
@@ -45410,12 +44429,6 @@
       <c r="F587" s="3">
         <v>3090114</v>
       </c>
-      <c r="G587" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H587" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
@@ -45491,12 +44504,6 @@
       <c r="F588" s="3">
         <v>3090114</v>
       </c>
-      <c r="G588" s="2">
-        <v>4790943</v>
-      </c>
-      <c r="H588" s="2">
-        <v>1943821</v>
-      </c>
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
       <c r="K588" s="3"/>
@@ -45572,12 +44579,6 @@
       <c r="F589" s="3">
         <v>3090114</v>
       </c>
-      <c r="G589" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H589" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
@@ -45653,12 +44654,6 @@
       <c r="F590" s="3">
         <v>3090114</v>
       </c>
-      <c r="G590" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H590" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
       <c r="K590" s="3"/>
@@ -45734,12 +44729,6 @@
       <c r="F591" s="3">
         <v>3090114</v>
       </c>
-      <c r="G591" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H591" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
       <c r="K591" s="3"/>
@@ -45815,12 +44804,6 @@
       <c r="F592" s="3">
         <v>3142971</v>
       </c>
-      <c r="G592" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H592" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
       <c r="K592" s="3"/>
@@ -45896,12 +44879,6 @@
       <c r="F593" s="3">
         <v>3142971</v>
       </c>
-      <c r="G593" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H593" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
@@ -45977,12 +44954,6 @@
       <c r="F594" s="3">
         <v>3142971</v>
       </c>
-      <c r="G594" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H594" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
       <c r="K594" s="3"/>
@@ -46058,12 +45029,6 @@
       <c r="F595" s="3">
         <v>3142971</v>
       </c>
-      <c r="G595" s="2">
-        <v>4963985</v>
-      </c>
-      <c r="H595" s="2">
-        <v>2166186</v>
-      </c>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
@@ -46139,12 +45104,6 @@
       <c r="F596" s="3">
         <v>3142971</v>
       </c>
-      <c r="G596" s="2">
-        <v>5118422</v>
-      </c>
-      <c r="H596" s="2">
-        <v>2359781</v>
-      </c>
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
@@ -46220,12 +45179,6 @@
       <c r="F597" s="3">
         <v>3142971</v>
       </c>
-      <c r="G597" s="2">
-        <v>5118422</v>
-      </c>
-      <c r="H597" s="2">
-        <v>2359781</v>
-      </c>
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
       <c r="K597" s="3"/>
@@ -46301,12 +45254,6 @@
       <c r="F598" s="3">
         <v>3142971</v>
       </c>
-      <c r="G598" s="2">
-        <v>5118422</v>
-      </c>
-      <c r="H598" s="2">
-        <v>2359781</v>
-      </c>
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
       <c r="K598" s="3"/>
@@ -46382,12 +45329,6 @@
       <c r="F599" s="3">
         <v>3142971</v>
       </c>
-      <c r="G599" s="2">
-        <v>5118422</v>
-      </c>
-      <c r="H599" s="2">
-        <v>2359781</v>
-      </c>
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
       <c r="K599" s="3"/>
@@ -46463,12 +45404,6 @@
       <c r="F600" s="3">
         <v>3142971</v>
       </c>
-      <c r="G600" s="2">
-        <v>5348573</v>
-      </c>
-      <c r="H600" s="2">
-        <v>2681129</v>
-      </c>
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
       <c r="K600" s="3"/>
@@ -46544,12 +45479,6 @@
       <c r="F601" s="3">
         <v>3207523</v>
       </c>
-      <c r="G601" s="2">
-        <v>5348573</v>
-      </c>
-      <c r="H601" s="2">
-        <v>2681129</v>
-      </c>
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
       <c r="K601" s="3"/>
@@ -46625,12 +45554,6 @@
       <c r="F602" s="3">
         <v>3207523</v>
       </c>
-      <c r="G602" s="2">
-        <v>5348573</v>
-      </c>
-      <c r="H602" s="2">
-        <v>2681129</v>
-      </c>
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
       <c r="K602" s="3"/>
@@ -46706,12 +45629,6 @@
       <c r="F603" s="3">
         <v>3207523</v>
       </c>
-      <c r="G603" s="2">
-        <v>5427920</v>
-      </c>
-      <c r="H603" s="2">
-        <v>2760913</v>
-      </c>
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
       <c r="K603" s="3"/>
@@ -46787,12 +45704,6 @@
       <c r="F604" s="3">
         <v>3207523</v>
       </c>
-      <c r="G604" s="2">
-        <v>5427920</v>
-      </c>
-      <c r="H604" s="2">
-        <v>2760913</v>
-      </c>
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
       <c r="K604" s="3"/>
@@ -46868,12 +45779,6 @@
       <c r="F605" s="3">
         <v>3207523</v>
       </c>
-      <c r="G605" s="2">
-        <v>5526303</v>
-      </c>
-      <c r="H605" s="2">
-        <v>2875824</v>
-      </c>
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
       <c r="K605" s="3"/>
@@ -46949,12 +45854,6 @@
       <c r="F606" s="3">
         <v>3298966</v>
       </c>
-      <c r="G606" s="2">
-        <v>5526303</v>
-      </c>
-      <c r="H606" s="2">
-        <v>2875824</v>
-      </c>
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
       <c r="K606" s="3"/>
@@ -47030,12 +45929,6 @@
       <c r="F607" s="3">
         <v>3298966</v>
       </c>
-      <c r="G607" s="2">
-        <v>5526303</v>
-      </c>
-      <c r="H607" s="2">
-        <v>2875824</v>
-      </c>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
       <c r="K607" s="3"/>
@@ -47111,12 +46004,6 @@
       <c r="F608" s="3">
         <v>3298966</v>
       </c>
-      <c r="G608" s="2">
-        <v>5526303</v>
-      </c>
-      <c r="H608" s="2">
-        <v>2875824</v>
-      </c>
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
       <c r="K608" s="3"/>
@@ -47192,12 +46079,6 @@
       <c r="F609" s="3">
         <v>3298966</v>
       </c>
-      <c r="G609" s="2">
-        <v>5526303</v>
-      </c>
-      <c r="H609" s="2">
-        <v>2875824</v>
-      </c>
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
       <c r="K609" s="3"/>
@@ -47273,12 +46154,6 @@
       <c r="F610" s="3">
         <v>3298966</v>
       </c>
-      <c r="G610" s="2">
-        <v>5607813</v>
-      </c>
-      <c r="H610" s="2">
-        <v>2973461</v>
-      </c>
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
       <c r="K610" s="3"/>
@@ -47354,12 +46229,6 @@
       <c r="F611" s="3">
         <v>3298966</v>
       </c>
-      <c r="G611" s="2">
-        <v>5607813</v>
-      </c>
-      <c r="H611" s="2">
-        <v>2973461</v>
-      </c>
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
       <c r="K611" s="3"/>
@@ -47435,12 +46304,6 @@
       <c r="F612" s="3">
         <v>3298966</v>
       </c>
-      <c r="G612" s="2">
-        <v>5607813</v>
-      </c>
-      <c r="H612" s="2">
-        <v>2973461</v>
-      </c>
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
       <c r="K612" s="3"/>
@@ -47516,12 +46379,6 @@
       <c r="F613" s="3">
         <v>3340313</v>
       </c>
-      <c r="G613" s="2">
-        <v>5693300</v>
-      </c>
-      <c r="H613" s="2">
-        <v>3079239</v>
-      </c>
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
       <c r="K613" s="3"/>
@@ -47597,12 +46454,6 @@
       <c r="F614" s="3">
         <v>3340313</v>
       </c>
-      <c r="G614" s="2">
-        <v>5693300</v>
-      </c>
-      <c r="H614" s="2">
-        <v>3079239</v>
-      </c>
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
       <c r="K614" s="3"/>
@@ -47678,12 +46529,6 @@
       <c r="F615" s="3">
         <v>3340313</v>
       </c>
-      <c r="G615" s="2">
-        <v>5693300</v>
-      </c>
-      <c r="H615" s="2">
-        <v>3079239</v>
-      </c>
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
       <c r="K615" s="3"/>
@@ -47759,12 +46604,6 @@
       <c r="F616" s="3">
         <v>3340313</v>
       </c>
-      <c r="G616" s="2">
-        <v>5693300</v>
-      </c>
-      <c r="H616" s="2">
-        <v>3079239</v>
-      </c>
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
       <c r="K616" s="3"/>
@@ -47840,12 +46679,6 @@
       <c r="F617" s="3">
         <v>3340313</v>
       </c>
-      <c r="G617" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H617" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
       <c r="K617" s="3"/>
@@ -47921,12 +46754,6 @@
       <c r="F618" s="3">
         <v>3340313</v>
       </c>
-      <c r="G618" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H618" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
       <c r="K618" s="3"/>
@@ -48002,12 +46829,6 @@
       <c r="F619" s="3">
         <v>3340313</v>
       </c>
-      <c r="G619" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H619" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
       <c r="K619" s="3"/>
@@ -48083,12 +46904,6 @@
       <c r="F620" s="3">
         <v>3392457</v>
       </c>
-      <c r="G620" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H620" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
       <c r="K620" s="3"/>
@@ -48164,12 +46979,6 @@
       <c r="F621" s="3">
         <v>3392457</v>
       </c>
-      <c r="G621" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H621" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
       <c r="K621" s="3"/>
@@ -48245,12 +47054,6 @@
       <c r="F622" s="3">
         <v>3392457</v>
       </c>
-      <c r="G622" s="2">
-        <v>5741264</v>
-      </c>
-      <c r="H622" s="2">
-        <v>3120978</v>
-      </c>
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
       <c r="K622" s="3"/>
@@ -48326,12 +47129,6 @@
       <c r="F623" s="3">
         <v>3392457</v>
       </c>
-      <c r="G623" s="2">
-        <v>5776679</v>
-      </c>
-      <c r="H623" s="2">
-        <v>3152648</v>
-      </c>
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
       <c r="K623" s="3"/>
@@ -48407,12 +47204,6 @@
       <c r="F624" s="3">
         <v>3392457</v>
       </c>
-      <c r="G624" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H624" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
       <c r="K624" s="3"/>
@@ -48488,12 +47279,6 @@
       <c r="F625" s="3">
         <v>3392457</v>
       </c>
-      <c r="G625" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H625" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
       <c r="K625" s="3"/>
@@ -48569,12 +47354,6 @@
       <c r="F626" s="3">
         <v>3392457</v>
       </c>
-      <c r="G626" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H626" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
       <c r="K626" s="3"/>
@@ -48650,12 +47429,6 @@
       <c r="F627" s="3">
         <v>3392457</v>
       </c>
-      <c r="G627" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H627" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
       <c r="K627" s="3"/>
@@ -48731,12 +47504,6 @@
       <c r="F628" s="3">
         <v>3440172</v>
       </c>
-      <c r="G628" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H628" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
       <c r="K628" s="3"/>
@@ -48812,12 +47579,6 @@
       <c r="F629" s="3">
         <v>3440172</v>
       </c>
-      <c r="G629" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H629" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
       <c r="K629" s="3"/>
@@ -48893,12 +47654,6 @@
       <c r="F630" s="3">
         <v>3440172</v>
       </c>
-      <c r="G630" s="2">
-        <v>5823013</v>
-      </c>
-      <c r="H630" s="2">
-        <v>3194938</v>
-      </c>
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
       <c r="K630" s="3"/>
@@ -48974,12 +47729,6 @@
       <c r="F631" s="3">
         <v>3440172</v>
       </c>
-      <c r="G631" s="2">
-        <v>5947322</v>
-      </c>
-      <c r="H631" s="2">
-        <v>3306380</v>
-      </c>
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
       <c r="K631" s="3"/>
@@ -49055,12 +47804,6 @@
       <c r="F632" s="3">
         <v>3440172</v>
       </c>
-      <c r="G632" s="2">
-        <v>5947322</v>
-      </c>
-      <c r="H632" s="2">
-        <v>3306380</v>
-      </c>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
       <c r="K632" s="3"/>
@@ -49136,12 +47879,6 @@
       <c r="F633" s="3">
         <v>3440172</v>
       </c>
-      <c r="G633" s="2">
-        <v>5947322</v>
-      </c>
-      <c r="H633" s="2">
-        <v>3306380</v>
-      </c>
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
       <c r="K633" s="3"/>
@@ -49217,12 +47954,6 @@
       <c r="F634" s="3">
         <v>3440172</v>
       </c>
-      <c r="G634" s="2">
-        <v>6079895</v>
-      </c>
-      <c r="H634" s="2">
-        <v>3403492</v>
-      </c>
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
       <c r="K634" s="3"/>
@@ -49298,12 +48029,6 @@
       <c r="F635" s="3">
         <v>3479682</v>
       </c>
-      <c r="G635" s="2">
-        <v>6079895</v>
-      </c>
-      <c r="H635" s="2">
-        <v>3403492</v>
-      </c>
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
       <c r="K635" s="3"/>
@@ -49379,12 +48104,6 @@
       <c r="F636" s="3">
         <v>3479682</v>
       </c>
-      <c r="G636" s="2">
-        <v>6079895</v>
-      </c>
-      <c r="H636" s="2">
-        <v>3403492</v>
-      </c>
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
       <c r="K636" s="3"/>
@@ -49460,12 +48179,6 @@
       <c r="F637" s="3">
         <v>3479682</v>
       </c>
-      <c r="G637" s="2">
-        <v>6183844</v>
-      </c>
-      <c r="H637" s="2">
-        <v>3456204</v>
-      </c>
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
       <c r="K637" s="3"/>
@@ -49541,12 +48254,6 @@
       <c r="F638" s="3">
         <v>3479682</v>
       </c>
-      <c r="G638" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H638" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
       <c r="K638" s="3"/>
@@ -49622,12 +48329,6 @@
       <c r="F639" s="3">
         <v>3479682</v>
       </c>
-      <c r="G639" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H639" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
       <c r="K639" s="3"/>
@@ -49703,12 +48404,6 @@
       <c r="F640" s="3">
         <v>3479682</v>
       </c>
-      <c r="G640" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H640" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
       <c r="K640" s="3"/>
@@ -49784,12 +48479,6 @@
       <c r="F641" s="3">
         <v>3479682</v>
       </c>
-      <c r="G641" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H641" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
       <c r="K641" s="3"/>
@@ -49865,12 +48554,6 @@
       <c r="F642" s="3">
         <v>3580510</v>
       </c>
-      <c r="G642" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H642" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
       <c r="K642" s="3"/>
@@ -49946,12 +48629,6 @@
       <c r="F643" s="3">
         <v>3580510</v>
       </c>
-      <c r="G643" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H643" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
       <c r="K643" s="3"/>
@@ -50027,12 +48704,6 @@
       <c r="F644" s="3">
         <v>3580510</v>
       </c>
-      <c r="G644" s="2">
-        <v>6329967</v>
-      </c>
-      <c r="H644" s="2">
-        <v>3516215</v>
-      </c>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
       <c r="K644" s="3"/>
@@ -50108,12 +48779,6 @@
       <c r="F645" s="3">
         <v>3580510</v>
       </c>
-      <c r="G645" s="2">
-        <v>6524582</v>
-      </c>
-      <c r="H645" s="2">
-        <v>3595400</v>
-      </c>
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
       <c r="K645" s="3"/>
@@ -50189,12 +48854,6 @@
       <c r="F646" s="3">
         <v>3580510</v>
       </c>
-      <c r="G646" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H646" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
       <c r="K646" s="3"/>
@@ -50270,12 +48929,6 @@
       <c r="F647" s="3">
         <v>3580510</v>
       </c>
-      <c r="G647" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H647" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
       <c r="K647" s="3"/>
@@ -50351,12 +49004,6 @@
       <c r="F648" s="3">
         <v>3629527</v>
       </c>
-      <c r="G648" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H648" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
       <c r="K648" s="3"/>
@@ -50432,12 +49079,6 @@
       <c r="F649" s="3">
         <v>3629527</v>
       </c>
-      <c r="G649" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H649" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
       <c r="K649" s="3"/>
@@ -50513,12 +49154,6 @@
       <c r="F650" s="3">
         <v>3629527</v>
       </c>
-      <c r="G650" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H650" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
       <c r="K650" s="3"/>
@@ -50594,12 +49229,6 @@
       <c r="F651" s="3">
         <v>3629527</v>
       </c>
-      <c r="G651" s="2">
-        <v>7131832</v>
-      </c>
-      <c r="H651" s="2">
-        <v>3785359</v>
-      </c>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
       <c r="K651" s="3"/>
@@ -50675,12 +49304,6 @@
       <c r="F652" s="3">
         <v>3629527</v>
       </c>
-      <c r="G652" s="2">
-        <v>7350443</v>
-      </c>
-      <c r="H652" s="2">
-        <v>3843337</v>
-      </c>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
       <c r="K652" s="3"/>
@@ -50756,12 +49379,6 @@
       <c r="F653" s="3">
         <v>3629527</v>
       </c>
-      <c r="G653" s="2">
-        <v>7350443</v>
-      </c>
-      <c r="H653" s="2">
-        <v>3843337</v>
-      </c>
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
       <c r="K653" s="3"/>
@@ -50837,12 +49454,6 @@
       <c r="F654" s="3">
         <v>3629527</v>
       </c>
-      <c r="G654" s="2">
-        <v>7350443</v>
-      </c>
-      <c r="H654" s="2">
-        <v>3843337</v>
-      </c>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
       <c r="K654" s="3"/>
@@ -50918,12 +49529,6 @@
       <c r="F655" s="3">
         <v>3686403</v>
       </c>
-      <c r="G655" s="2">
-        <v>7894068</v>
-      </c>
-      <c r="H655" s="2">
-        <v>3969325</v>
-      </c>
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
       <c r="K655" s="3"/>
@@ -50999,12 +49604,6 @@
       <c r="F656" s="3">
         <v>3686403</v>
       </c>
-      <c r="G656" s="2">
-        <v>7894068</v>
-      </c>
-      <c r="H656" s="2">
-        <v>3969325</v>
-      </c>
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
       <c r="K656" s="3"/>
@@ -51080,12 +49679,6 @@
       <c r="F657" s="3">
         <v>3686403</v>
       </c>
-      <c r="G657" s="2">
-        <v>7894068</v>
-      </c>
-      <c r="H657" s="2">
-        <v>3969325</v>
-      </c>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
       <c r="K657" s="3"/>
@@ -51161,12 +49754,6 @@
       <c r="F658" s="3">
         <v>3686403</v>
       </c>
-      <c r="G658" s="2">
-        <v>8181113</v>
-      </c>
-      <c r="H658" s="2">
-        <v>4031004</v>
-      </c>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
       <c r="K658" s="3"/>
@@ -51242,12 +49829,6 @@
       <c r="F659" s="3">
         <v>3686403</v>
       </c>
-      <c r="G659" s="2">
-        <v>8181113</v>
-      </c>
-      <c r="H659" s="2">
-        <v>4031004</v>
-      </c>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
       <c r="K659" s="3"/>
@@ -51323,12 +49904,6 @@
       <c r="F660" s="3">
         <v>3686403</v>
       </c>
-      <c r="G660" s="2">
-        <v>8181113</v>
-      </c>
-      <c r="H660" s="2">
-        <v>4031004</v>
-      </c>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
       <c r="K660" s="3"/>
@@ -51404,12 +49979,6 @@
       <c r="F661" s="3">
         <v>3686403</v>
       </c>
-      <c r="G661" s="2">
-        <v>8181113</v>
-      </c>
-      <c r="H661" s="2">
-        <v>4031004</v>
-      </c>
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
       <c r="K661" s="3"/>
@@ -51485,12 +50054,6 @@
       <c r="F662" s="3">
         <v>3751696</v>
       </c>
-      <c r="G662" s="2">
-        <v>8181113</v>
-      </c>
-      <c r="H662" s="2">
-        <v>4031004</v>
-      </c>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
       <c r="K662" s="3"/>
@@ -51566,12 +50129,6 @@
       <c r="F663" s="3">
         <v>3751696</v>
       </c>
-      <c r="G663" s="2">
-        <v>8811055</v>
-      </c>
-      <c r="H663" s="2">
-        <v>4153915</v>
-      </c>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
       <c r="K663" s="3"/>
@@ -51647,12 +50204,6 @@
       <c r="F664" s="3">
         <v>3751696</v>
       </c>
-      <c r="G664" s="2">
-        <v>8811055</v>
-      </c>
-      <c r="H664" s="2">
-        <v>4153915</v>
-      </c>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
       <c r="K664" s="3"/>
@@ -51728,12 +50279,6 @@
       <c r="F665" s="3">
         <v>3751696</v>
       </c>
-      <c r="G665" s="2">
-        <v>9242736</v>
-      </c>
-      <c r="H665" s="2">
-        <v>4244751</v>
-      </c>
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
       <c r="K665" s="3"/>
@@ -51809,12 +50354,6 @@
       <c r="F666" s="3">
         <v>3751696</v>
       </c>
-      <c r="G666" s="2">
-        <v>9242736</v>
-      </c>
-      <c r="H666" s="2">
-        <v>4244751</v>
-      </c>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
       <c r="K666" s="3"/>
@@ -51890,12 +50429,6 @@
       <c r="F667" s="3">
         <v>3751696</v>
       </c>
-      <c r="G667" s="2">
-        <v>9242736</v>
-      </c>
-      <c r="H667" s="2">
-        <v>4244751</v>
-      </c>
       <c r="I667" s="3"/>
     </row>
     <row r="668" spans="1:66">
@@ -51918,12 +50451,6 @@
       <c r="F668" s="3">
         <v>3751696</v>
       </c>
-      <c r="G668" s="2">
-        <v>9242736</v>
-      </c>
-      <c r="H668" s="2">
-        <v>4244751</v>
-      </c>
       <c r="I668" s="3"/>
     </row>
     <row r="669" spans="1:66">
@@ -51946,12 +50473,6 @@
       <c r="F669" s="3">
         <v>3751696</v>
       </c>
-      <c r="G669" s="2">
-        <v>9242736</v>
-      </c>
-      <c r="H669" s="2">
-        <v>4244751</v>
-      </c>
       <c r="I669" s="3"/>
     </row>
     <row r="670" spans="1:66">
@@ -51974,12 +50495,6 @@
       <c r="F670" s="3">
         <v>3751696</v>
       </c>
-      <c r="G670" s="2">
-        <v>9765729</v>
-      </c>
-      <c r="H670" s="2">
-        <v>4363620</v>
-      </c>
     </row>
     <row r="671" spans="1:66">
       <c r="A671" s="7">
@@ -52001,12 +50516,6 @@
       <c r="F671" s="3">
         <v>3751696</v>
       </c>
-      <c r="G671" s="2">
-        <v>9765729</v>
-      </c>
-      <c r="H671" s="2">
-        <v>4363620</v>
-      </c>
     </row>
     <row r="672" spans="1:66">
       <c r="A672" s="7">
@@ -52028,14 +50537,8 @@
       <c r="F672" s="3">
         <v>3751696</v>
       </c>
-      <c r="G672" s="2">
-        <v>9765729</v>
-      </c>
-      <c r="H672" s="2">
-        <v>4363620</v>
-      </c>
-    </row>
-    <row r="673" spans="1:8">
+    </row>
+    <row r="673" spans="1:6">
       <c r="A673" s="7">
         <v>44560</v>
       </c>
@@ -52055,14 +50558,8 @@
       <c r="F673" s="3">
         <v>3751696</v>
       </c>
-      <c r="G673" s="2">
-        <v>9861311</v>
-      </c>
-      <c r="H673" s="2">
-        <v>4380239</v>
-      </c>
-    </row>
-    <row r="674" spans="1:8">
+    </row>
+    <row r="674" spans="1:6">
       <c r="A674" s="7">
         <v>44561</v>
       </c>
@@ -52082,14 +50579,8 @@
       <c r="F674" s="3">
         <v>3751696</v>
       </c>
-      <c r="G674" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H674" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="675" spans="1:8">
+    </row>
+    <row r="675" spans="1:6">
       <c r="A675" s="7">
         <v>44562</v>
       </c>
@@ -52109,14 +50600,8 @@
       <c r="F675" s="3">
         <v>3751696</v>
       </c>
-      <c r="G675" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H675" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="676" spans="1:8">
+    </row>
+    <row r="676" spans="1:6">
       <c r="A676" s="7">
         <v>44563</v>
       </c>
@@ -52136,14 +50621,8 @@
       <c r="F676" s="3">
         <v>3751696</v>
       </c>
-      <c r="G676" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H676" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="677" spans="1:8">
+    </row>
+    <row r="677" spans="1:6">
       <c r="A677" s="7">
         <v>44564</v>
       </c>
@@ -52163,14 +50642,8 @@
       <c r="F677" s="3">
         <v>3751696</v>
       </c>
-      <c r="G677" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H677" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="678" spans="1:8">
+    </row>
+    <row r="678" spans="1:6">
       <c r="A678" s="7">
         <v>44565</v>
       </c>
@@ -52187,14 +50660,8 @@
       <c r="E678" s="2">
         <v>3053</v>
       </c>
-      <c r="G678" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H678" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="679" spans="1:8">
+    </row>
+    <row r="679" spans="1:6">
       <c r="A679" s="7">
         <v>44566</v>
       </c>
@@ -52211,14 +50678,8 @@
       <c r="E679" s="2">
         <v>3058</v>
       </c>
-      <c r="G679" s="2">
-        <v>10310476</v>
-      </c>
-      <c r="H679" s="2">
-        <v>4482899</v>
-      </c>
-    </row>
-    <row r="680" spans="1:8">
+    </row>
+    <row r="680" spans="1:6">
       <c r="A680" s="7">
         <v>44567</v>
       </c>
@@ -52235,14 +50696,8 @@
       <c r="E680" s="2">
         <v>3066</v>
       </c>
-      <c r="G680" s="2">
-        <v>10689964</v>
-      </c>
-      <c r="H680" s="2">
-        <v>4562815</v>
-      </c>
-    </row>
-    <row r="681" spans="1:8">
+    </row>
+    <row r="681" spans="1:6">
       <c r="A681" s="7">
         <v>44568</v>
       </c>
@@ -52259,14 +50714,8 @@
       <c r="E681" s="2">
         <v>3070</v>
       </c>
-      <c r="G681" s="2">
-        <v>10689964</v>
-      </c>
-      <c r="H681" s="2">
-        <v>4562815</v>
-      </c>
-    </row>
-    <row r="682" spans="1:8">
+    </row>
+    <row r="682" spans="1:6">
       <c r="A682" s="7">
         <v>44569</v>
       </c>
@@ -52283,14 +50732,8 @@
       <c r="E682" s="2">
         <v>3071</v>
       </c>
-      <c r="G682" s="2">
-        <v>10689964</v>
-      </c>
-      <c r="H682" s="2">
-        <v>4562815</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8">
+    </row>
+    <row r="683" spans="1:6">
       <c r="A683" s="7">
         <v>44570</v>
       </c>
@@ -52307,14 +50750,8 @@
       <c r="E683" s="2">
         <v>3077</v>
       </c>
-      <c r="G683" s="2">
-        <v>11738772</v>
-      </c>
-      <c r="H683" s="2">
-        <v>4785226</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8">
+    </row>
+    <row r="684" spans="1:6">
       <c r="A684" s="7">
         <v>44571</v>
       </c>
@@ -52331,14 +50768,8 @@
       <c r="E684" s="2">
         <v>3085</v>
       </c>
-      <c r="G684" s="2">
-        <v>11738772</v>
-      </c>
-      <c r="H684" s="2">
-        <v>4785226</v>
-      </c>
-    </row>
-    <row r="685" spans="1:8">
+    </row>
+    <row r="685" spans="1:6">
       <c r="A685" s="7">
         <v>44572</v>
       </c>
@@ -52355,14 +50786,8 @@
       <c r="E685" s="2">
         <v>3086</v>
       </c>
-      <c r="G685" s="2">
-        <v>11738772</v>
-      </c>
-      <c r="H685" s="2">
-        <v>4785226</v>
-      </c>
-    </row>
-    <row r="686" spans="1:8">
+    </row>
+    <row r="686" spans="1:6">
       <c r="A686" s="7">
         <v>44573</v>
       </c>
@@ -52379,14 +50804,8 @@
       <c r="E686" s="2">
         <v>3092</v>
       </c>
-      <c r="G686" s="2">
-        <v>12068803</v>
-      </c>
-      <c r="H686" s="2">
-        <v>4866103</v>
-      </c>
-    </row>
-    <row r="687" spans="1:8">
+    </row>
+    <row r="687" spans="1:6">
       <c r="A687" s="7">
         <v>44574</v>
       </c>
@@ -52403,14 +50822,8 @@
       <c r="E687" s="2">
         <v>3092</v>
       </c>
-      <c r="G687" s="2">
-        <v>12068803</v>
-      </c>
-      <c r="H687" s="2">
-        <v>4866103</v>
-      </c>
-    </row>
-    <row r="688" spans="1:8">
+    </row>
+    <row r="688" spans="1:6">
       <c r="A688" s="7">
         <v>44575</v>
       </c>
@@ -52427,14 +50840,8 @@
       <c r="E688" s="2">
         <v>3092</v>
       </c>
-      <c r="G688" s="2">
-        <v>12391384</v>
-      </c>
-      <c r="H688" s="2">
-        <v>4934418</v>
-      </c>
-    </row>
-    <row r="689" spans="1:8">
+    </row>
+    <row r="689" spans="1:5">
       <c r="A689" s="7">
         <v>44576</v>
       </c>
@@ -52451,14 +50858,8 @@
       <c r="E689" s="2">
         <v>3095</v>
       </c>
-      <c r="G689" s="2">
-        <v>12391384</v>
-      </c>
-      <c r="H689" s="2">
-        <v>4934418</v>
-      </c>
-    </row>
-    <row r="690" spans="1:8">
+    </row>
+    <row r="690" spans="1:5">
       <c r="A690" s="7">
         <v>44577</v>
       </c>
@@ -52475,14 +50876,8 @@
       <c r="E690" s="2">
         <v>3103</v>
       </c>
-      <c r="G690" s="2">
-        <v>12722289</v>
-      </c>
-      <c r="H690" s="2">
-        <v>5006267</v>
-      </c>
-    </row>
-    <row r="691" spans="1:8">
+    </row>
+    <row r="691" spans="1:5">
       <c r="A691" s="7">
         <v>44578</v>
       </c>
@@ -52498,12 +50893,6 @@
       </c>
       <c r="E691" s="2">
         <v>3110</v>
-      </c>
-      <c r="G691" s="2">
-        <v>12722289</v>
-      </c>
-      <c r="H691" s="2">
-        <v>5006267</v>
       </c>
     </row>
   </sheetData>
